--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6426BD0F-10B6-4406-8ACF-BA1078BEF0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF02C349-E572-4023-81EB-7084193C1ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="324">
   <si>
     <t>Kategori1</t>
   </si>
@@ -347,18 +347,9 @@
     <t>Giriş Ünitesi</t>
   </si>
   <si>
-    <t>Hiz</t>
-  </si>
-  <si>
     <t>Makina_Tipi</t>
   </si>
   <si>
-    <t>Dogrultma_Tipi</t>
-  </si>
-  <si>
-    <t>Giris_Unitesi</t>
-  </si>
-  <si>
     <t>Hız</t>
   </si>
   <si>
@@ -932,18 +923,12 @@
     <t>Sac_genislik_harici_CMC</t>
   </si>
   <si>
-    <t>Min_sac_genislik_CMC</t>
-  </si>
-  <si>
     <t>Sac_genislik_CMC_opts</t>
   </si>
   <si>
     <t>Sac_genislik_harici_CMC_opts</t>
   </si>
   <si>
-    <t>Min_sac_genislik_CMC_opts</t>
-  </si>
-  <si>
     <t>Acici_Tipi_CMC_opts</t>
   </si>
   <si>
@@ -978,6 +963,51 @@
   </si>
   <si>
     <t>Tambur_YTY</t>
+  </si>
+  <si>
+    <t>Sac_Genislik_YTY</t>
+  </si>
+  <si>
+    <t>Discap_YTY</t>
+  </si>
+  <si>
+    <t>Dogrultma_Tipi_YTY</t>
+  </si>
+  <si>
+    <t>Giris_Unitesi_YTY</t>
+  </si>
+  <si>
+    <t>Hiz_YTY</t>
+  </si>
+  <si>
+    <t>Makina_Tipi_opts</t>
+  </si>
+  <si>
+    <t>CMDC</t>
+  </si>
+  <si>
+    <t>Sadece Yatay Açıcı</t>
+  </si>
+  <si>
+    <t>Yatay Açma &amp; Doğrultma</t>
+  </si>
+  <si>
+    <t>Tambur_YTY_opts</t>
+  </si>
+  <si>
+    <t>(2000 kg kapasiteli tambur)</t>
+  </si>
+  <si>
+    <t>(3000 kg kapasiteli tambur)</t>
+  </si>
+  <si>
+    <t>Sac_Genislik_YTY_opts</t>
+  </si>
+  <si>
+    <t>Min_sac_genislik</t>
+  </si>
+  <si>
+    <t>Min_sac_genislik_opts</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -1388,7 +1418,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1846,8 +1876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,7 +1941,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E3" t="s">
         <v>93</v>
@@ -1951,7 +1981,7 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E5" t="s">
         <v>94</v>
@@ -1971,7 +2001,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E6" t="s">
         <v>95</v>
@@ -2071,7 +2101,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E11" t="s">
         <v>82</v>
@@ -2091,7 +2121,7 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E12" t="s">
         <v>99</v>
@@ -2111,7 +2141,7 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E13" t="s">
         <v>83</v>
@@ -2134,7 +2164,7 @@
         <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -2191,7 +2221,7 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
         <v>100</v>
@@ -2211,7 +2241,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E18" t="s">
         <v>94</v>
@@ -2231,7 +2261,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>309</v>
       </c>
       <c r="E19" t="s">
         <v>95</v>
@@ -2251,7 +2281,7 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>310</v>
       </c>
       <c r="E20" t="s">
         <v>96</v>
@@ -2271,7 +2301,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>311</v>
       </c>
       <c r="E21" t="s">
         <v>101</v>
@@ -2291,7 +2321,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>312</v>
       </c>
       <c r="E22" t="s">
         <v>102</v>
@@ -2311,10 +2341,10 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>313</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -2371,7 +2401,7 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
         <v>100</v>
@@ -2391,10 +2421,10 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -2431,10 +2461,10 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -2451,10 +2481,10 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -2741,10 +2771,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2794,22 +2824,22 @@
         <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2817,22 +2847,22 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2840,48 +2870,48 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C4" t="s">
         <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="Q4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2889,22 +2919,22 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2912,126 +2942,126 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C7" t="s">
         <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" t="s">
         <v>294</v>
       </c>
-      <c r="B9" t="s">
-        <v>297</v>
-      </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="N9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="K10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -3042,19 +3072,19 @@
         <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q11" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -3062,22 +3092,22 @@
         <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M12">
         <v>4</v>
@@ -3086,7 +3116,7 @@
         <v>87</v>
       </c>
       <c r="O12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3097,22 +3127,22 @@
         <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C13" t="s">
         <v>97</v>
       </c>
       <c r="D13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="Q13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -3120,28 +3150,28 @@
         <v>88</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N14" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="O14" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q14" t="s">
         <v>257</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -3149,28 +3179,28 @@
         <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N15" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="O15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -3181,19 +3211,19 @@
         <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -3207,114 +3237,114 @@
         <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B18" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="Q18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B19" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C19" t="s">
         <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q19" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B20" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="N20" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="O20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q20" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B21" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C21" t="s">
         <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="Q21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -3325,19 +3355,19 @@
         <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q22" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -3351,16 +3381,85 @@
         <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="Q23" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>308</v>
+      </c>
+      <c r="B25" t="s">
+        <v>308</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>309</v>
+      </c>
+      <c r="B26" t="s">
+        <v>309</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3371,10 +3470,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3401,13 +3500,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3415,13 +3514,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
         <v>117</v>
       </c>
-      <c r="B3" t="s">
-        <v>120</v>
-      </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3429,13 +3528,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -3443,13 +3542,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -3457,13 +3556,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3471,7 +3570,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3479,13 +3578,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3493,13 +3592,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -3507,13 +3606,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" t="s">
         <v>136</v>
-      </c>
-      <c r="C10" t="s">
-        <v>139</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3521,13 +3620,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -3535,13 +3634,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3549,13 +3648,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" t="s">
         <v>135</v>
       </c>
-      <c r="B13" t="s">
-        <v>138</v>
-      </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -3563,13 +3662,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B14">
         <v>500</v>
       </c>
       <c r="C14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -3577,13 +3676,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B15">
         <v>1250</v>
       </c>
       <c r="C15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -3591,13 +3690,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B16">
         <v>2500</v>
       </c>
       <c r="C16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -3605,13 +3704,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B17">
         <v>4000</v>
       </c>
       <c r="C17" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -3619,13 +3718,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B18">
         <v>300</v>
       </c>
       <c r="C18" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -3633,13 +3732,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B19">
         <v>400</v>
       </c>
       <c r="C19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -3647,13 +3746,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B20">
         <v>600</v>
       </c>
       <c r="C20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -3661,13 +3760,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B21">
         <v>800</v>
       </c>
       <c r="C21" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -3675,13 +3774,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B22">
         <v>1000</v>
       </c>
       <c r="C22" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -3689,13 +3788,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -3703,7 +3802,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -3711,7 +3810,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3719,13 +3818,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3733,13 +3832,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C27" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -3747,13 +3846,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -3761,13 +3860,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -3775,13 +3874,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -3789,13 +3888,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -3803,7 +3902,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3811,13 +3910,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C33" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3825,13 +3924,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C34" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -3839,13 +3938,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -3853,13 +3952,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C36" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -3867,13 +3966,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C37" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -3881,13 +3980,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C38" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -3895,13 +3994,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3909,13 +4008,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C40" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -3923,13 +4022,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C41" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3937,13 +4036,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C42" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3951,13 +4050,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3965,13 +4064,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B44" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C44" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3979,13 +4078,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B45" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C45" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -3993,13 +4092,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -4007,13 +4106,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" t="s">
         <v>184</v>
       </c>
-      <c r="B47" t="s">
-        <v>187</v>
-      </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -4021,13 +4120,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B48" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C48" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D48">
         <v>6</v>
@@ -4035,13 +4134,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B49" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C49" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D49">
         <v>7</v>
@@ -4049,13 +4148,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B50" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C50" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D50">
         <v>8</v>
@@ -4063,13 +4162,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B51" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D51">
         <v>9</v>
@@ -4077,13 +4176,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C52" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -4091,13 +4190,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B53" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C53" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -4105,13 +4204,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B54" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C54" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -4119,13 +4218,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" t="s">
         <v>203</v>
       </c>
-      <c r="B55" t="s">
-        <v>206</v>
-      </c>
       <c r="C55" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -4133,13 +4232,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B56" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C56" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D56">
         <v>5</v>
@@ -4147,13 +4246,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B57" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C57" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D57">
         <v>6</v>
@@ -4161,13 +4260,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B58" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C58" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D58">
         <v>7</v>
@@ -4175,13 +4274,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B59" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C59" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D59">
         <v>8</v>
@@ -4189,13 +4288,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B60" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C60" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D60">
         <v>9</v>
@@ -4203,13 +4302,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B61" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C61" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D61">
         <v>10</v>
@@ -4217,13 +4316,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B62" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C62" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D62">
         <v>11</v>
@@ -4231,13 +4330,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B63" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C63" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -4245,13 +4344,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -4259,13 +4358,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B65" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C65" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -4273,13 +4372,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B66">
         <v>300</v>
       </c>
       <c r="C66" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -4287,13 +4386,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B67">
         <v>500</v>
       </c>
       <c r="C67" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -4301,13 +4400,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C68" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -4315,13 +4414,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B69" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C69" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -4329,13 +4428,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B70" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C70" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -4343,13 +4442,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B71" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C71" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -4357,13 +4456,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B72" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C72" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -4371,13 +4470,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>225</v>
+      </c>
+      <c r="B73" t="s">
         <v>228</v>
       </c>
-      <c r="B73" t="s">
-        <v>231</v>
-      </c>
       <c r="C73" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -4385,13 +4484,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B74" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C74" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -4399,13 +4498,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B75" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C75" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -4413,13 +4512,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B76" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C76" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -4427,13 +4526,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B77" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C77" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -4441,13 +4540,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>236</v>
+      </c>
+      <c r="B78" t="s">
         <v>239</v>
       </c>
-      <c r="B78" t="s">
-        <v>242</v>
-      </c>
       <c r="C78" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -4455,16 +4554,72 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B79" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C79" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D79">
         <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>314</v>
+      </c>
+      <c r="B80" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" t="s">
+        <v>316</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>314</v>
+      </c>
+      <c r="B81" t="s">
+        <v>315</v>
+      </c>
+      <c r="C81" t="s">
+        <v>317</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>318</v>
+      </c>
+      <c r="B82">
+        <v>2000</v>
+      </c>
+      <c r="C82" t="s">
+        <v>319</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>318</v>
+      </c>
+      <c r="B83">
+        <v>3000</v>
+      </c>
+      <c r="C83" t="s">
+        <v>320</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF02C349-E572-4023-81EB-7084193C1ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75072D17-73BE-4DE1-B2F5-7ED43ECD297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="326">
   <si>
     <t>Kategori1</t>
   </si>
@@ -1008,6 +1008,12 @@
   </si>
   <si>
     <t>Min_sac_genislik_opts</t>
+  </si>
+  <si>
+    <t>(150 mm sac genişliği)</t>
+  </si>
+  <si>
+    <t>(250 mm sac genişliği)</t>
   </si>
 </sst>
 </file>
@@ -1876,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2773,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3470,10 +3476,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4622,6 +4628,34 @@
         <v>2</v>
       </c>
     </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>309</v>
+      </c>
+      <c r="B84">
+        <v>150</v>
+      </c>
+      <c r="C84" t="s">
+        <v>324</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>309</v>
+      </c>
+      <c r="B85">
+        <v>250</v>
+      </c>
+      <c r="C85" t="s">
+        <v>325</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75072D17-73BE-4DE1-B2F5-7ED43ECD297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A555B48-F8F2-4FA4-BA85-57D4261F4924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="326">
   <si>
     <t>Kategori1</t>
   </si>
@@ -2777,10 +2777,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3468,6 +3468,32 @@
         <v>257</v>
       </c>
     </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>309</v>
+      </c>
+      <c r="B27" t="s">
+        <v>322</v>
+      </c>
+      <c r="C27" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>323</v>
+      </c>
+      <c r="K27" t="s">
+        <v>252</v>
+      </c>
+      <c r="L27" t="s">
+        <v>253</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3479,7 +3505,7 @@
   <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4630,7 +4656,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B84">
         <v>150</v>
@@ -4644,7 +4670,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="B85">
         <v>250</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A555B48-F8F2-4FA4-BA85-57D4261F4924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C475CCA1-51C3-474E-BEA4-4C202A670226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="355">
   <si>
     <t>Kategori1</t>
   </si>
@@ -1014,6 +1014,93 @@
   </si>
   <si>
     <t>(250 mm sac genişliği)</t>
+  </si>
+  <si>
+    <t>Discap_YTY_opts</t>
+  </si>
+  <si>
+    <t>D1100</t>
+  </si>
+  <si>
+    <t>D1400</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>(1400 mm rulo dış çapı)</t>
+  </si>
+  <si>
+    <t>(1500 mm rulo dış çapı)</t>
+  </si>
+  <si>
+    <t>(1100 mm rulo dış çapı)</t>
+  </si>
+  <si>
+    <t>Dogrultma_Tipi_YTY_opts</t>
+  </si>
+  <si>
+    <t>T-3092</t>
+  </si>
+  <si>
+    <t>Ø30mm - 9 + 2 merdaneli doğrultucu</t>
+  </si>
+  <si>
+    <t>Giris_Unitesi_YTY_opts</t>
+  </si>
+  <si>
+    <t>Hiz_acici_YTY</t>
+  </si>
+  <si>
+    <t>Tambur Hızı</t>
+  </si>
+  <si>
+    <t>Hiz_dogrultucu_YTY</t>
+  </si>
+  <si>
+    <t>Doğrultucu Hızı</t>
+  </si>
+  <si>
+    <t>Hiz_acici_YTY_opts</t>
+  </si>
+  <si>
+    <t>Hiz_dogrultucu_YTY_opts</t>
+  </si>
+  <si>
+    <t>Hiz_acici_harici</t>
+  </si>
+  <si>
+    <t>Hiz_dogrultucu_harici</t>
+  </si>
+  <si>
+    <t>Listede Olmayan Açıcı Hızı (belirtiniz...)</t>
+  </si>
+  <si>
+    <t>Listede Olmayan Doğrultma Hızı (belirtiniz...)</t>
+  </si>
+  <si>
+    <t>Hiz_acici_harici_opts</t>
+  </si>
+  <si>
+    <t>Hiz_dogrultucu_harici_opts</t>
+  </si>
+  <si>
+    <t>VR35</t>
+  </si>
+  <si>
+    <t>VR50</t>
+  </si>
+  <si>
+    <t>(35 dev/dk)</t>
+  </si>
+  <si>
+    <t>(50 dev/dk)</t>
+  </si>
+  <si>
+    <t>VS24</t>
+  </si>
+  <si>
+    <t>(24 m/dk hız)</t>
   </si>
 </sst>
 </file>
@@ -1882,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2777,10 +2864,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3494,6 +3581,226 @@
         <v>253</v>
       </c>
     </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B28" t="s">
+        <v>310</v>
+      </c>
+      <c r="C28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>310</v>
+      </c>
+      <c r="B29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" t="s">
+        <v>247</v>
+      </c>
+      <c r="D29" t="s">
+        <v>248</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>152</v>
+      </c>
+      <c r="K29" t="s">
+        <v>246</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>310</v>
+      </c>
+      <c r="O29" t="s">
+        <v>144</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>311</v>
+      </c>
+      <c r="B30" t="s">
+        <v>311</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>333</v>
+      </c>
+      <c r="N30" t="s">
+        <v>103</v>
+      </c>
+      <c r="O30" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>312</v>
+      </c>
+      <c r="B31" t="s">
+        <v>312</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>336</v>
+      </c>
+      <c r="N31" t="s">
+        <v>103</v>
+      </c>
+      <c r="O31" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>313</v>
+      </c>
+      <c r="B32" t="s">
+        <v>337</v>
+      </c>
+      <c r="C32" t="s">
+        <v>338</v>
+      </c>
+      <c r="D32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>313</v>
+      </c>
+      <c r="B33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C33" t="s">
+        <v>345</v>
+      </c>
+      <c r="D33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>347</v>
+      </c>
+      <c r="N33" t="s">
+        <v>337</v>
+      </c>
+      <c r="O33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>313</v>
+      </c>
+      <c r="B34" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34" t="s">
+        <v>340</v>
+      </c>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>342</v>
+      </c>
+      <c r="N34" t="s">
+        <v>103</v>
+      </c>
+      <c r="O34" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>313</v>
+      </c>
+      <c r="B35" t="s">
+        <v>344</v>
+      </c>
+      <c r="C35" t="s">
+        <v>346</v>
+      </c>
+      <c r="D35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>348</v>
+      </c>
+      <c r="N35" t="s">
+        <v>339</v>
+      </c>
+      <c r="O35" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3502,10 +3809,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4682,6 +4989,176 @@
         <v>2</v>
       </c>
     </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>326</v>
+      </c>
+      <c r="B86" t="s">
+        <v>327</v>
+      </c>
+      <c r="C86" t="s">
+        <v>332</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>326</v>
+      </c>
+      <c r="B87" t="s">
+        <v>153</v>
+      </c>
+      <c r="C87" t="s">
+        <v>268</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>326</v>
+      </c>
+      <c r="B88" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" t="s">
+        <v>269</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>326</v>
+      </c>
+      <c r="B89" t="s">
+        <v>328</v>
+      </c>
+      <c r="C89" t="s">
+        <v>330</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>326</v>
+      </c>
+      <c r="B90" t="s">
+        <v>329</v>
+      </c>
+      <c r="C90" t="s">
+        <v>331</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>333</v>
+      </c>
+      <c r="B91" t="s">
+        <v>334</v>
+      </c>
+      <c r="C91" t="s">
+        <v>335</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>341</v>
+      </c>
+      <c r="B92" t="s">
+        <v>349</v>
+      </c>
+      <c r="C92" t="s">
+        <v>351</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>341</v>
+      </c>
+      <c r="B93" t="s">
+        <v>350</v>
+      </c>
+      <c r="C93" t="s">
+        <v>352</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>341</v>
+      </c>
+      <c r="B94" t="s">
+        <v>144</v>
+      </c>
+      <c r="C94" t="s">
+        <v>145</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>347</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>342</v>
+      </c>
+      <c r="B96" t="s">
+        <v>353</v>
+      </c>
+      <c r="C96" t="s">
+        <v>354</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>342</v>
+      </c>
+      <c r="B97" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" t="s">
+        <v>145</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>348</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v16\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C475CCA1-51C3-474E-BEA4-4C202A670226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA51752-F95F-4957-9818-CB6D02951081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="388">
   <si>
     <t>Kategori1</t>
   </si>
@@ -296,9 +296,6 @@
     <t>Cift_Kafa</t>
   </si>
   <si>
-    <t>Sac_Genislik</t>
-  </si>
-  <si>
     <t>Discap</t>
   </si>
   <si>
@@ -347,9 +344,6 @@
     <t>Giriş Ünitesi</t>
   </si>
   <si>
-    <t>Makina_Tipi</t>
-  </si>
-  <si>
     <t>Hız</t>
   </si>
   <si>
@@ -359,12 +353,6 @@
     <t>Enkoder</t>
   </si>
   <si>
-    <t>Unite_Tipi</t>
-  </si>
-  <si>
-    <t>Hat_Hizi</t>
-  </si>
-  <si>
     <t>Hat Hızı</t>
   </si>
   <si>
@@ -980,9 +968,6 @@
     <t>Hiz_YTY</t>
   </si>
   <si>
-    <t>Makina_Tipi_opts</t>
-  </si>
-  <si>
     <t>CMDC</t>
   </si>
   <si>
@@ -1043,9 +1028,6 @@
     <t>T-3092</t>
   </si>
   <si>
-    <t>Ø30mm - 9 + 2 merdaneli doğrultucu</t>
-  </si>
-  <si>
     <t>Giris_Unitesi_YTY_opts</t>
   </si>
   <si>
@@ -1100,7 +1082,124 @@
     <t>VS24</t>
   </si>
   <si>
-    <t>(24 m/dk hız)</t>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>(KM Tipi Salınım)</t>
+  </si>
+  <si>
+    <t>VR</t>
+  </si>
+  <si>
+    <t>VS</t>
+  </si>
+  <si>
+    <t>Makina_Tipi_YTY</t>
+  </si>
+  <si>
+    <t>Makina Tipi_YTY</t>
+  </si>
+  <si>
+    <t>Makina_Tipi_YTY_opts</t>
+  </si>
+  <si>
+    <t>Makina_Tipi_CMSS</t>
+  </si>
+  <si>
+    <t>Makina_Tipi_CMSS_opts</t>
+  </si>
+  <si>
+    <t>Hafif Tip Doğrultmalı Servo Sürücü</t>
+  </si>
+  <si>
+    <t>Unite_Tipi_CMSS</t>
+  </si>
+  <si>
+    <t>Unite_Tipi_CMSS_opts</t>
+  </si>
+  <si>
+    <t>Unite_Tipi_CMDSS_M</t>
+  </si>
+  <si>
+    <t>CMSS Ünite Tipi</t>
+  </si>
+  <si>
+    <t>CMDSS Ünite Tipi</t>
+  </si>
+  <si>
+    <t>Unite_Tipi_CMDSS_M_opts</t>
+  </si>
+  <si>
+    <t>MINI</t>
+  </si>
+  <si>
+    <t>PRO80E</t>
+  </si>
+  <si>
+    <t>PRO80S</t>
+  </si>
+  <si>
+    <t>PRO80</t>
+  </si>
+  <si>
+    <t>PRO130</t>
+  </si>
+  <si>
+    <t>Ø100mm Trigerli Servo Sürücü</t>
+  </si>
+  <si>
+    <t>Ø80 Redüktörlü Servo Sürücü / Optimum</t>
+  </si>
+  <si>
+    <t>Ø80 Redüktörlü Servo Sürücü / Eko Seri</t>
+  </si>
+  <si>
+    <t>Ø80 Redüktörlü Servo Sürücü / Performans</t>
+  </si>
+  <si>
+    <t>Ø130 Redüktörlü Servo Sürücü</t>
+  </si>
+  <si>
+    <t>Ø30mm - 9 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Ø50mm - 5 + 2 merdaneli doğrultucu sürücü</t>
+  </si>
+  <si>
+    <t>Sac_Genislik_CMSS</t>
+  </si>
+  <si>
+    <t>Sac_Genislik_CMSS_opts</t>
+  </si>
+  <si>
+    <t>(100 mm rulo genişliği)</t>
+  </si>
+  <si>
+    <t>(200 mm rulo genişliği)</t>
+  </si>
+  <si>
+    <t>Enkoder_opts</t>
+  </si>
+  <si>
+    <t>Enkoder var</t>
+  </si>
+  <si>
+    <t>Enkoder yok</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>Hiz_CMSS</t>
+  </si>
+  <si>
+    <t>Hiz_CMSS_opts</t>
+  </si>
+  <si>
+    <t>(50 m/dk sürücü hızı)</t>
+  </si>
+  <si>
+    <t>(24 m/dk doğrultma hızı)</t>
   </si>
 </sst>
 </file>
@@ -1127,12 +1226,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1175,7 +1280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1183,6 +1288,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1488,7 +1594,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1970,7 +2076,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,7 +2123,7 @@
         <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2034,10 +2140,10 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2074,10 +2180,10 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -2094,10 +2200,10 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2114,10 +2220,10 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -2134,10 +2240,10 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -2174,10 +2280,10 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -2194,7 +2300,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E11" t="s">
         <v>82</v>
@@ -2214,10 +2320,10 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -2234,7 +2340,7 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E13" t="s">
         <v>83</v>
@@ -2254,10 +2360,10 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -2274,7 +2380,7 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
         <v>84</v>
@@ -2297,7 +2403,7 @@
         <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2314,10 +2420,10 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>352</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -2334,10 +2440,10 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -2354,10 +2460,10 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -2374,10 +2480,10 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -2394,10 +2500,10 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -2414,10 +2520,10 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F22">
         <v>7</v>
@@ -2434,10 +2540,10 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -2454,7 +2560,7 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" t="s">
         <v>84</v>
@@ -2477,7 +2583,7 @@
         <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2494,10 +2600,10 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>355</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -2514,10 +2620,10 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>358</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -2534,10 +2640,10 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>376</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28">
         <v>4</v>
@@ -2554,10 +2660,10 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -2574,10 +2680,10 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>384</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -2594,7 +2700,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E31" t="s">
         <v>84</v>
@@ -2864,10 +2970,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2880,6 +2986,7 @@
     <col min="7" max="13" width="13.28515625" customWidth="1"/>
     <col min="14" max="14" width="22.5703125" customWidth="1"/>
     <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2917,22 +3024,22 @@
         <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2940,22 +3047,22 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="Q2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -2963,48 +3070,48 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="N3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -3012,22 +3119,22 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -3035,181 +3142,181 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="O6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>291</v>
       </c>
-      <c r="B8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>295</v>
-      </c>
       <c r="Q8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="N9" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K10" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L10" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M12">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -3217,83 +3324,83 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q13" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="N14" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O14" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q14" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N15" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O15" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q15" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -3304,336 +3411,336 @@
         <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="Q17" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B18" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C18" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q18" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B19" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q19" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B20" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C20" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="O20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q20" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B21" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C21" t="s">
         <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q21" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q22" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
         <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q23" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>352</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>352</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>353</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="Q24" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B25" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="Q25" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B26" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="Q26" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B27" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C27" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="K27" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B28" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="Q28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D29" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K29" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M29">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="O29" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -3641,164 +3748,346 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B30" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="N30" t="s">
-        <v>103</v>
+        <v>352</v>
       </c>
       <c r="O30" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q30" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B31" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="N31" t="s">
-        <v>103</v>
+        <v>352</v>
       </c>
       <c r="O31" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q31" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B32" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C32" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Q32" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C33" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>347</v>
+        <v>341</v>
+      </c>
+      <c r="K33" t="s">
+        <v>350</v>
       </c>
       <c r="N33" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="O33" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B34" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C34" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D34" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="N34" t="s">
-        <v>103</v>
+        <v>352</v>
       </c>
       <c r="O34" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Q34" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C35" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>348</v>
+        <v>342</v>
+      </c>
+      <c r="K35" t="s">
+        <v>351</v>
       </c>
       <c r="N35" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="O35" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>355</v>
+      </c>
+      <c r="B36" t="s">
+        <v>355</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>358</v>
+      </c>
+      <c r="B37" t="s">
+        <v>358</v>
+      </c>
+      <c r="C37" t="s">
+        <v>361</v>
+      </c>
+      <c r="D37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>359</v>
+      </c>
+      <c r="N37" t="s">
+        <v>355</v>
+      </c>
+      <c r="O37" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>358</v>
+      </c>
+      <c r="B38" t="s">
+        <v>360</v>
+      </c>
+      <c r="C38" t="s">
+        <v>362</v>
+      </c>
+      <c r="D38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>363</v>
+      </c>
+      <c r="N38" t="s">
+        <v>355</v>
+      </c>
+      <c r="O38" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>376</v>
+      </c>
+      <c r="B39" t="s">
+        <v>376</v>
+      </c>
+      <c r="C39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>376</v>
+      </c>
+      <c r="B40" t="s">
+        <v>317</v>
+      </c>
+      <c r="C40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>318</v>
+      </c>
+      <c r="K40" t="s">
+        <v>248</v>
+      </c>
+      <c r="L40" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>384</v>
+      </c>
+      <c r="B42" t="s">
+        <v>384</v>
+      </c>
+      <c r="C42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3809,10 +4098,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117:C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3839,13 +4128,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3853,13 +4142,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" t="s">
         <v>114</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>118</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3867,13 +4156,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -3881,13 +4170,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -3895,13 +4184,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3909,7 +4198,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3917,13 +4206,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3931,13 +4220,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -3945,13 +4234,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
         <v>129</v>
       </c>
-      <c r="B10" t="s">
-        <v>133</v>
-      </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3959,13 +4248,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -3973,13 +4262,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
         <v>134</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -3987,13 +4276,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
         <v>135</v>
-      </c>
-      <c r="C13" t="s">
-        <v>139</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -4001,13 +4290,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B14">
         <v>500</v>
       </c>
       <c r="C14" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -4015,13 +4304,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B15">
         <v>1250</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -4029,13 +4318,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B16">
         <v>2500</v>
       </c>
       <c r="C16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -4043,13 +4332,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B17">
         <v>4000</v>
       </c>
       <c r="C17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -4057,13 +4346,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B18">
         <v>300</v>
       </c>
       <c r="C18" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -4071,13 +4360,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B19">
         <v>400</v>
       </c>
       <c r="C19" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -4085,13 +4374,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B20">
         <v>600</v>
       </c>
       <c r="C20" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -4099,13 +4388,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B21">
         <v>800</v>
       </c>
       <c r="C21" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -4113,13 +4402,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B22">
         <v>1000</v>
       </c>
       <c r="C22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -4127,13 +4416,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -4141,7 +4430,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -4149,7 +4438,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -4157,13 +4446,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C26" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -4171,13 +4460,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -4185,13 +4474,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -4199,13 +4488,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -4213,13 +4502,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -4227,13 +4516,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -4241,7 +4530,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -4249,13 +4538,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B33" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -4263,13 +4552,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C34" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -4277,13 +4566,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C35" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -4291,13 +4580,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C36" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -4305,13 +4594,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C37" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -4319,13 +4608,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B38" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C38" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -4333,13 +4622,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B39" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C39" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -4347,13 +4636,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B40" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C40" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -4361,13 +4650,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B41" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C41" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -4375,13 +4664,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B42" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -4389,13 +4678,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -4403,13 +4692,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B44" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C44" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -4417,13 +4706,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B45" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C45" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -4431,13 +4720,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B46" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C46" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -4445,13 +4734,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B47" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C47" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -4459,13 +4748,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" t="s">
         <v>181</v>
       </c>
-      <c r="B48" t="s">
-        <v>185</v>
-      </c>
       <c r="C48" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D48">
         <v>6</v>
@@ -4473,13 +4762,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B49" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C49" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D49">
         <v>7</v>
@@ -4487,13 +4776,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B50" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C50" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D50">
         <v>8</v>
@@ -4501,13 +4790,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B51" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C51" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D51">
         <v>9</v>
@@ -4515,13 +4804,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -4529,13 +4818,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B53" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C53" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -4543,13 +4832,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B54" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C54" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -4557,13 +4846,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B55" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C55" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -4571,13 +4860,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>196</v>
+      </c>
+      <c r="B56" t="s">
         <v>200</v>
       </c>
-      <c r="B56" t="s">
-        <v>204</v>
-      </c>
       <c r="C56" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D56">
         <v>5</v>
@@ -4585,13 +4874,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B57" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C57" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D57">
         <v>6</v>
@@ -4599,13 +4888,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B58" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C58" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D58">
         <v>7</v>
@@ -4613,13 +4902,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B59" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C59" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D59">
         <v>8</v>
@@ -4627,13 +4916,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B60" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C60" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D60">
         <v>9</v>
@@ -4641,13 +4930,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B61" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C61" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D61">
         <v>10</v>
@@ -4655,13 +4944,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B62" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D62">
         <v>11</v>
@@ -4669,13 +4958,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B63" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C63" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -4683,13 +4972,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C64" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -4697,13 +4986,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B65" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C65" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -4711,13 +5000,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B66">
         <v>300</v>
       </c>
       <c r="C66" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -4725,13 +5014,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B67">
         <v>500</v>
       </c>
       <c r="C67" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -4739,13 +5028,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -4753,13 +5042,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B69" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C69" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -4767,13 +5056,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B70" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C70" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -4781,13 +5070,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B71" t="s">
+        <v>222</v>
+      </c>
+      <c r="C71" t="s">
         <v>226</v>
-      </c>
-      <c r="C71" t="s">
-        <v>230</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -4795,13 +5084,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B72" t="s">
+        <v>223</v>
+      </c>
+      <c r="C72" t="s">
         <v>227</v>
-      </c>
-      <c r="C72" t="s">
-        <v>231</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -4809,13 +5098,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B73" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C73" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -4823,13 +5112,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>221</v>
+      </c>
+      <c r="B74" t="s">
         <v>225</v>
       </c>
-      <c r="B74" t="s">
-        <v>229</v>
-      </c>
       <c r="C74" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -4837,13 +5126,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C75" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -4851,13 +5140,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B76" t="s">
+        <v>233</v>
+      </c>
+      <c r="C76" t="s">
         <v>237</v>
-      </c>
-      <c r="C76" t="s">
-        <v>241</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -4865,13 +5154,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B77" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" t="s">
         <v>238</v>
-      </c>
-      <c r="C77" t="s">
-        <v>242</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -4879,13 +5168,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B78" t="s">
+        <v>235</v>
+      </c>
+      <c r="C78" t="s">
         <v>239</v>
-      </c>
-      <c r="C78" t="s">
-        <v>243</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -4893,13 +5182,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>232</v>
+      </c>
+      <c r="B79" t="s">
         <v>236</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>240</v>
-      </c>
-      <c r="C79" t="s">
-        <v>244</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -4907,13 +5196,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="B80" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C80" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -4921,13 +5210,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="B81" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C81" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -4935,13 +5224,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B82">
         <v>2000</v>
       </c>
       <c r="C82" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -4949,13 +5238,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B83">
         <v>3000</v>
       </c>
       <c r="C83" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -4963,13 +5252,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B84">
         <v>150</v>
       </c>
       <c r="C84" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -4977,13 +5266,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B85">
         <v>250</v>
       </c>
       <c r="C85" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -4991,13 +5280,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B86" t="s">
+        <v>322</v>
+      </c>
+      <c r="C86" t="s">
         <v>327</v>
-      </c>
-      <c r="C86" t="s">
-        <v>332</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -5005,13 +5294,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B87" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C87" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -5019,13 +5308,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B88" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C88" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -5033,13 +5322,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B89" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C89" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D89">
         <v>4</v>
@@ -5047,13 +5336,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>321</v>
+      </c>
+      <c r="B90" t="s">
+        <v>324</v>
+      </c>
+      <c r="C90" t="s">
         <v>326</v>
-      </c>
-      <c r="B90" t="s">
-        <v>329</v>
-      </c>
-      <c r="C90" t="s">
-        <v>331</v>
       </c>
       <c r="D90">
         <v>5</v>
@@ -5061,27 +5350,27 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B91" t="s">
-        <v>334</v>
+        <v>140</v>
       </c>
       <c r="C91" t="s">
-        <v>335</v>
+        <v>141</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B92" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="C92" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -5089,73 +5378,339 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B93" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C93" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B94" t="s">
-        <v>144</v>
+        <v>343</v>
       </c>
       <c r="C94" t="s">
-        <v>145</v>
+        <v>345</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>347</v>
+        <v>335</v>
+      </c>
+      <c r="B95" t="s">
+        <v>344</v>
+      </c>
+      <c r="C95" t="s">
+        <v>346</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B96" t="s">
-        <v>353</v>
+        <v>140</v>
       </c>
       <c r="C96" t="s">
-        <v>354</v>
+        <v>141</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>342</v>
-      </c>
-      <c r="B97" t="s">
-        <v>144</v>
-      </c>
-      <c r="C97" t="s">
-        <v>145</v>
+        <v>341</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>348</v>
+        <v>336</v>
+      </c>
+      <c r="B98" t="s">
+        <v>347</v>
+      </c>
+      <c r="C98" t="s">
+        <v>387</v>
       </c>
       <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>336</v>
+      </c>
+      <c r="B99" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" t="s">
+        <v>141</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>342</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>356</v>
+      </c>
+      <c r="B101" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>356</v>
+      </c>
+      <c r="B102" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" t="s">
+        <v>357</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>359</v>
+      </c>
+      <c r="B103" t="s">
+        <v>364</v>
+      </c>
+      <c r="C103" t="s">
+        <v>369</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>359</v>
+      </c>
+      <c r="B104" t="s">
+        <v>365</v>
+      </c>
+      <c r="C104" t="s">
+        <v>371</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>359</v>
+      </c>
+      <c r="B105" t="s">
+        <v>367</v>
+      </c>
+      <c r="C105" t="s">
+        <v>370</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>359</v>
+      </c>
+      <c r="B106" t="s">
+        <v>366</v>
+      </c>
+      <c r="C106" t="s">
+        <v>372</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>359</v>
+      </c>
+      <c r="B107" t="s">
+        <v>368</v>
+      </c>
+      <c r="C107" t="s">
+        <v>373</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>363</v>
+      </c>
+      <c r="B108">
+        <v>5052</v>
+      </c>
+      <c r="C108" t="s">
+        <v>375</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>377</v>
+      </c>
+      <c r="B109">
+        <v>100</v>
+      </c>
+      <c r="C109" t="s">
+        <v>378</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>377</v>
+      </c>
+      <c r="B110">
+        <v>200</v>
+      </c>
+      <c r="C110" t="s">
+        <v>379</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>377</v>
+      </c>
+      <c r="B111">
+        <v>300</v>
+      </c>
+      <c r="C111" t="s">
+        <v>259</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>377</v>
+      </c>
+      <c r="B112">
+        <v>400</v>
+      </c>
+      <c r="C112" t="s">
+        <v>260</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>377</v>
+      </c>
+      <c r="B113">
+        <v>600</v>
+      </c>
+      <c r="C113" t="s">
+        <v>261</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>377</v>
+      </c>
+      <c r="B114" t="s">
+        <v>140</v>
+      </c>
+      <c r="C114" t="s">
+        <v>141</v>
+      </c>
+      <c r="D114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>380</v>
+      </c>
+      <c r="B115" t="s">
+        <v>383</v>
+      </c>
+      <c r="C115" t="s">
+        <v>381</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>380</v>
+      </c>
+      <c r="B116" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" t="s">
+        <v>382</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>385</v>
+      </c>
+      <c r="B117" s="3">
+        <v>50</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D117">
         <v>1</v>
       </c>
     </row>
